--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michał\Documents\GitHub\PJATK_IDH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5637AB3-4C17-49C2-916D-F50A1C45A672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">Obiekty źródłowe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+  <si>
+    <t>Obiekty źródłowe</t>
   </si>
   <si>
     <t>Staging</t>
@@ -100,43 +107,49 @@
   </si>
   <si>
     <t>D_Customer</t>
+  </si>
+  <si>
+    <t>SpecialOfferProduct</t>
+  </si>
+  <si>
+    <t>orderDate, shipDate, dueDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <i/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,34 +192,36 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,295 +229,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -705,286 +440,309 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" min="2" max="2" width="12.0859375"/>
-    <col bestFit="1" min="3" max="3" width="18.18359375"/>
-    <col bestFit="1" min="5" max="5" width="16.2734375"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="D12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
-      <c r="B21" s="11" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="D29" s="9"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>